--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/73.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/73.xlsx
@@ -479,13 +479,13 @@
         <v>0.002154297109160314</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.671527917705984</v>
+        <v>-1.673164110582576</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.20400614314294</v>
+        <v>-0.2009525460476166</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3119870029024098</v>
+        <v>-0.3091883969047372</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.02164383085131691</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.811159153956568</v>
+        <v>-1.811078878981382</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1898021945923226</v>
+        <v>-0.1872302473481172</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3137924028345416</v>
+        <v>-0.3106081621521504</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.03460126346595476</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.988948548755284</v>
+        <v>-1.987358002433209</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2635528605208663</v>
+        <v>-0.2609840613149036</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3452113985148247</v>
+        <v>-0.3415628221916497</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.03783314728225233</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.017032984927091</v>
+        <v>-2.016128710941904</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.237162855933139</v>
+        <v>-0.2359776195347995</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3497681838709902</v>
+        <v>-0.3461306256816643</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.0372144568991792</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.954719928943479</v>
+        <v>-1.952317975764374</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1910078932392389</v>
+        <v>-0.1907041075488279</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3633503948686938</v>
+        <v>-0.3601315257656339</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.03482721425968111</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.708145898543923</v>
+        <v>-1.706571879422622</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1650239855848071</v>
+        <v>-0.1640921662649971</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3806409949161819</v>
+        <v>-0.376406883479883</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.03168715829965527</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.483638042205881</v>
+        <v>-1.479924931098733</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04658849082165818</v>
+        <v>-0.0466183971849629</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3640051868231549</v>
+        <v>-0.3598356101708294</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.02975759532116935</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.199657447388615</v>
+        <v>-1.194210554219354</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003062368340650714</v>
+        <v>0.003048202168559007</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3166413774440959</v>
+        <v>-0.3131879794919622</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.03481735675521776</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.015628640793063</v>
+        <v>-1.008041081618833</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1473448310946782</v>
+        <v>0.1450813915982479</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3099486481403254</v>
+        <v>-0.3060324885665293</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.05561626807254191</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7846240205318524</v>
+        <v>-0.7735492219943808</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1719058254634542</v>
+        <v>0.1695447967815032</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2959005274827167</v>
+        <v>-0.2920221443678318</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.09884451379694575</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.557680369603598</v>
+        <v>-0.5427633903910314</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1649769932914886</v>
+        <v>0.1605650176944827</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2490498483372018</v>
+        <v>-0.245067579960311</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1714962978690229</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3482067569026599</v>
+        <v>-0.3281443091825613</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.01202145689877378</v>
+        <v>-0.01654833589163456</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1982971757899824</v>
+        <v>-0.1942409285143905</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2762571118005759</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04009566194629285</v>
+        <v>-0.01782329137988811</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1298966008547397</v>
+        <v>-0.1354528883529311</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08913737570865837</v>
+        <v>-0.08521649407749836</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4127556682186975</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3565571566214805</v>
+        <v>0.3805310418580112</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4054790166503067</v>
+        <v>-0.409867381960493</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03953081736206635</v>
+        <v>0.04220507584915622</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5766071197464464</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7154807368516763</v>
+        <v>0.7414331641236821</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6097536441935887</v>
+        <v>-0.6153429860933274</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08067567719286632</v>
+        <v>0.08430693930570701</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7553683683430943</v>
       </c>
       <c r="E17" t="n">
-        <v>1.208576855019785</v>
+        <v>1.235564986873607</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7246460219146897</v>
+        <v>-0.7342176321913193</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1423063958873948</v>
+        <v>0.1458400688147148</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9390690172354225</v>
       </c>
       <c r="E18" t="n">
-        <v>1.562240063346594</v>
+        <v>1.589157364339957</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9177710850122384</v>
+        <v>-0.9292354532822319</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1956955504627928</v>
+        <v>0.2009795326529992</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.121635521265164</v>
       </c>
       <c r="E19" t="n">
-        <v>1.927211025040827</v>
+        <v>1.954860244925595</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.025551257333742</v>
+        <v>-1.040280928270874</v>
       </c>
       <c r="G19" t="n">
-        <v>0.260486899552893</v>
+        <v>0.2666381662789361</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.301367278397783</v>
       </c>
       <c r="E20" t="n">
-        <v>2.241482830837966</v>
+        <v>2.27043533855517</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.242410954761384</v>
+        <v>-1.257745049041095</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3304819558580133</v>
+        <v>0.3372911625767601</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.47361256199406</v>
       </c>
       <c r="E21" t="n">
-        <v>2.502596862870536</v>
+        <v>2.531273917241514</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.276590779980428</v>
+        <v>-1.295175223745626</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4555550892556872</v>
+        <v>0.4619235706204698</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.632296711575009</v>
       </c>
       <c r="E22" t="n">
-        <v>2.724543003088661</v>
+        <v>2.752151298476275</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.387843238483522</v>
+        <v>-1.408817043274853</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4568741172793372</v>
+        <v>0.4651581799147427</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.775875470532999</v>
       </c>
       <c r="E23" t="n">
-        <v>2.802622221600782</v>
+        <v>2.831571581279744</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.497283213968437</v>
+        <v>-1.519376933364574</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5555178956112513</v>
+        <v>0.5647699800062568</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.902990441428339</v>
       </c>
       <c r="E24" t="n">
-        <v>2.926717889124128</v>
+        <v>2.955190321009336</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.639641438346675</v>
+        <v>-1.661036293252954</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5959985193728624</v>
+        <v>0.6056362384525865</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.014182860452146</v>
       </c>
       <c r="E25" t="n">
-        <v>2.935499341801865</v>
+        <v>2.964794985687513</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.58997169095491</v>
+        <v>-1.613797618394039</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6502785687709166</v>
+        <v>0.6601649828718062</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.107420960716687</v>
       </c>
       <c r="E26" t="n">
-        <v>2.921880928364371</v>
+        <v>2.950606777328109</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.507083844027216</v>
+        <v>-1.532977245582173</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5913614590415106</v>
+        <v>0.6026896746575117</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.181966984881354</v>
       </c>
       <c r="E27" t="n">
-        <v>2.992692900593446</v>
+        <v>3.019045128722262</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.550236365247235</v>
+        <v>-1.575403356977711</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6208491332599577</v>
+        <v>0.6313588589328823</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.240216491956594</v>
       </c>
       <c r="E28" t="n">
-        <v>2.932296212890018</v>
+        <v>2.958395023940304</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.503681601696524</v>
+        <v>-1.529105158543773</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6390983109523178</v>
+        <v>0.6484621507049356</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.283898764819414</v>
       </c>
       <c r="E29" t="n">
-        <v>2.799453721109603</v>
+        <v>2.827095070898765</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.657600209511155</v>
+        <v>-1.678709379946918</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6086536331081199</v>
+        <v>0.6187840201728112</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.314926565091093</v>
       </c>
       <c r="E30" t="n">
-        <v>2.754657136917386</v>
+        <v>2.781062881696326</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.642412499009724</v>
+        <v>-1.662325414913299</v>
       </c>
       <c r="G30" t="n">
-        <v>0.560499666130168</v>
+        <v>0.5710786486444299</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.332337416886608</v>
       </c>
       <c r="E31" t="n">
-        <v>2.640062248810211</v>
+        <v>2.66591079082021</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.680939765041801</v>
+        <v>-1.697886441911285</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5531427007572086</v>
+        <v>0.5620894254426817</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.33431865039045</v>
       </c>
       <c r="E32" t="n">
-        <v>2.600672420299661</v>
+        <v>2.624268540947079</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.726244757410199</v>
+        <v>-1.741123960163854</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5442337525306467</v>
+        <v>0.5531820512352411</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.319947915001813</v>
       </c>
       <c r="E33" t="n">
-        <v>2.424695508519123</v>
+        <v>2.448334127682816</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.718373874794135</v>
+        <v>-1.731905717179957</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5406733212782645</v>
+        <v>0.5492312632407764</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.289327059713759</v>
       </c>
       <c r="E34" t="n">
-        <v>2.252208197130508</v>
+        <v>2.276005792225453</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.709451547405042</v>
+        <v>-1.722462389461713</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4810085524662406</v>
+        <v>0.4887306902753418</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.243963446756528</v>
       </c>
       <c r="E35" t="n">
-        <v>2.099479547771581</v>
+        <v>2.122521613688302</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.748842949934713</v>
+        <v>-1.760049966078374</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4184570325857513</v>
+        <v>0.4260264905400863</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.186654940219273</v>
       </c>
       <c r="E36" t="n">
-        <v>1.949008041832599</v>
+        <v>1.970244707817188</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.616933064483669</v>
+        <v>-1.630436574525308</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4210368499255632</v>
+        <v>0.4273943131564966</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.118262941388652</v>
       </c>
       <c r="E37" t="n">
-        <v>1.74975925734363</v>
+        <v>1.771041569882737</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.602567778973119</v>
+        <v>-1.616327854131529</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3405808625402785</v>
+        <v>0.3479897705442409</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>2.041358704795335</v>
       </c>
       <c r="E38" t="n">
-        <v>1.631586623773739</v>
+        <v>1.652673757941804</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.500308478719577</v>
+        <v>-1.514419560142038</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2932438114862816</v>
+        <v>0.3002529186334336</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.956523133212727</v>
       </c>
       <c r="E39" t="n">
-        <v>1.459473928935994</v>
+        <v>1.479881086843657</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.462033842756469</v>
+        <v>-1.47652111474892</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2783378504075641</v>
+        <v>0.2847598484224709</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.864197850541626</v>
       </c>
       <c r="E40" t="n">
-        <v>1.229959904782655</v>
+        <v>1.250736957183824</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.533631250527073</v>
+        <v>-1.544116578903618</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2996909938071292</v>
+        <v>0.3042997217942977</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.765040734266348</v>
       </c>
       <c r="E41" t="n">
-        <v>1.146590408003843</v>
+        <v>1.165960287310569</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.473358910334227</v>
+        <v>-1.484478568416656</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2003499250044789</v>
+        <v>0.2052860489688779</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.658110237392507</v>
       </c>
       <c r="E42" t="n">
-        <v>1.00965861454629</v>
+        <v>1.027168003251639</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.357156161694643</v>
+        <v>-1.369819145525507</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1603871535337758</v>
+        <v>0.1648872742015744</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.544349730923036</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9222438886257347</v>
+        <v>0.9382784214144247</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.293250985369836</v>
+        <v>-1.305376441670775</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1194846926476561</v>
+        <v>0.1237188040839549</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.423837696539172</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7515399409015537</v>
+        <v>0.7670660655140638</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.220376261082295</v>
+        <v>-1.232684303601306</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1042765198976488</v>
+        <v>0.1083784137277584</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.299504314629886</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5927702061550747</v>
+        <v>0.6084143822016822</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.187071590494694</v>
+        <v>-1.197741866117992</v>
       </c>
       <c r="G45" t="n">
-        <v>0.08934380049386921</v>
+        <v>0.09263192643826636</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.1748791433177</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4215783125032906</v>
+        <v>0.4371752679762591</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.048533510523854</v>
+        <v>-1.061246075957039</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01491473232404489</v>
+        <v>0.01830516951132657</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.053207407867711</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3436155714061462</v>
+        <v>0.3570451025490837</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.067529560289271</v>
+        <v>-1.077828367399941</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.0241886247064281</v>
+        <v>-0.02062976747316724</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.9393951436525834</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2082955735288048</v>
+        <v>0.2214716875932128</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.9420676441686358</v>
+        <v>-0.9541805083166052</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.01353566329346504</v>
+        <v>-0.01039706916559147</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.8347727516139655</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2041952537178165</v>
+        <v>0.2147742362320784</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.9135141502986805</v>
+        <v>-0.9254349841138514</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.09272141724786004</v>
+        <v>-0.08865729987666167</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.741318260093468</v>
       </c>
       <c r="E50" t="n">
-        <v>0.02704254965366669</v>
+        <v>0.03859899804225634</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.8543357533951387</v>
+        <v>-0.8667335150040635</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1008779843344402</v>
+        <v>-0.09801484355279426</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.657538192624075</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01831618764517568</v>
+        <v>0.02824824830058302</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.945720155539614</v>
+        <v>-0.9552051947645719</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1437306549118514</v>
+        <v>-0.1403370696863271</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5809034349149449</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.03348792967507256</v>
+        <v>-0.02430195408316174</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.907852403519362</v>
+        <v>-0.9179324219721716</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1526647874443541</v>
+        <v>-0.1500267313970542</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.5093118563850387</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.09940627645602407</v>
+        <v>-0.09079324382426669</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.8633422908072211</v>
+        <v>-0.8731869934013963</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.1893173967029619</v>
+        <v>-0.186679340655662</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4402125173621254</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2023062024919352</v>
+        <v>-0.1933358675196426</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.868845848664849</v>
+        <v>-0.8782356597329682</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.2400275707339062</v>
+        <v>-0.2370385084225562</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3735383409497868</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.2842197315835443</v>
+        <v>-0.2753800401983196</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8507092133396619</v>
+        <v>-0.860106107493827</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.2322660824467725</v>
+        <v>-0.2306527128474393</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3088810557999134</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.3180831789592073</v>
+        <v>-0.3102146573718252</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8362298114428168</v>
+        <v>-0.8463365882206886</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.235665963748782</v>
+        <v>-0.2340132436714163</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2468426825089801</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3728118238068323</v>
+        <v>-0.3653745834586865</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8372379706900099</v>
+        <v>-0.8474942792844052</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3481642583863848</v>
+        <v>-0.3447848393329522</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1877254775326666</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3935259154431493</v>
+        <v>-0.3868111498716805</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7426496526241271</v>
+        <v>-0.7542344333569001</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3575816147891268</v>
+        <v>-0.3545705162100786</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1309807675997013</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.5065971530409055</v>
+        <v>-0.4992039852281562</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7401028896858626</v>
+        <v>-0.7522259849581204</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4103254215247915</v>
+        <v>-0.4072009935690097</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.07747699552417685</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5239522878723669</v>
+        <v>-0.5171037306755876</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7299000977415915</v>
+        <v>-0.7417414435911366</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4133554083332954</v>
+        <v>-0.4110132678807999</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02702220737887682</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5392564757887734</v>
+        <v>-0.5341157293386054</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.742042081243305</v>
+        <v>-0.7544784063207017</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4541366697470748</v>
+        <v>-0.4512294564300325</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.01950981526758422</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6463968093374687</v>
+        <v>-0.6403478538543101</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7827273274906852</v>
+        <v>-0.7947465375009372</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4875027270804069</v>
+        <v>-0.4843594108951694</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.06086246257800117</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7267079869635936</v>
+        <v>-0.7206495873657073</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7971107142211308</v>
+        <v>-0.8094982447057673</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5468778763741113</v>
+        <v>-0.5431285628271731</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.09636916611080557</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7552685639195946</v>
+        <v>-0.7499767116337818</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8441306004221857</v>
+        <v>-0.8559530580422751</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.540274866160255</v>
+        <v>-0.5368230422272426</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1250442467921415</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8119663066879668</v>
+        <v>-0.8062164148378553</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8573500000124294</v>
+        <v>-0.8692070860531875</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5777884638782143</v>
+        <v>-0.574028132197427</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1467157364627701</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8394675687753324</v>
+        <v>-0.8339317435257179</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9614131261789818</v>
+        <v>-0.971770959006701</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6602875280829472</v>
+        <v>-0.6545706906343831</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1615040538926396</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9665223922467239</v>
+        <v>-0.9597375828243573</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.9254373451425333</v>
+        <v>-0.9371409643189645</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6600246668896901</v>
+        <v>-0.6547139263744215</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1704391893430173</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.016044181841086</v>
+        <v>-1.009614313730573</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.00867934637252</v>
+        <v>-1.019717155460641</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.7196359190515896</v>
+        <v>-0.7137081630407713</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.175338042843216</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.045980451509104</v>
+        <v>-1.038985510534044</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9747246058878217</v>
+        <v>-0.9859733335381972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7492148863790722</v>
+        <v>-0.742733075637556</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1783970678253757</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.194006718743145</v>
+        <v>-1.184297381793402</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9712350054958981</v>
+        <v>-0.9831094057469905</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.7707191356142822</v>
+        <v>-0.764316025828831</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.181583155598823</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.197669461238412</v>
+        <v>-1.187819249577312</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.013092895988647</v>
+        <v>-1.024856327891688</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7995756281650878</v>
+        <v>-0.7934338055537724</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1860882415293753</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.174077275638796</v>
+        <v>-1.163780829556808</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.101306436613262</v>
+        <v>-1.112090041613294</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7630788467994887</v>
+        <v>-0.7568173987349546</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1917607086329815</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.130220380861995</v>
+        <v>-1.120042773223665</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.167673378843785</v>
+        <v>-1.176725562810385</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7525045863425907</v>
+        <v>-0.7476802177358041</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1971523493381379</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.131833750461329</v>
+        <v>-1.120670806853064</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.161050693390912</v>
+        <v>-1.170745077159003</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7577476440356432</v>
+        <v>-0.7518859968279195</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1999890024740032</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.053932396109915</v>
+        <v>-1.042982732092587</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.192520057683077</v>
+        <v>-1.202729145703833</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7717044715842164</v>
+        <v>-0.7655232984948687</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1980466467095334</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9631768146043993</v>
+        <v>-0.9519949827666792</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.273445889776069</v>
+        <v>-1.282350902954828</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7157842942617669</v>
+        <v>-0.7100942151382649</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1901524390151288</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.8530529278112786</v>
+        <v>-0.8422858500120213</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222441374169442</v>
+        <v>-1.231960254805508</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7251198016702013</v>
+        <v>-0.7186647492537471</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.174567470770028</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7613190934218745</v>
+        <v>-0.7504504913892932</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.224382139746006</v>
+        <v>-1.23369324985806</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6851806404863177</v>
+        <v>-0.678801140987686</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1508305133875522</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6400724005080826</v>
+        <v>-0.6284750276223391</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.287909551481702</v>
+        <v>-1.297173441020117</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6616537766802363</v>
+        <v>-0.6551640958431135</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1189884168617505</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4643536278634376</v>
+        <v>-0.4518386018299759</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.204561303961027</v>
+        <v>-1.214380035239701</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6780330196564912</v>
+        <v>-0.6701707941455942</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.07987857358637747</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2431346844793538</v>
+        <v>-0.2324171882824174</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.218296981823057</v>
+        <v>-1.227112275911902</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.6105500978689669</v>
+        <v>-0.6047278011392756</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.03504706143218918</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.07534582016782175</v>
+        <v>-0.06503284688505964</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.22721930921215</v>
+        <v>-1.236781475374052</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4793996766439509</v>
+        <v>-0.4750160333911285</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.01323676442219546</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1152238228862951</v>
+        <v>0.1246647895758567</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.143756945305181</v>
+        <v>-1.153251428644867</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4378345537077636</v>
+        <v>-0.4343575454688104</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.0627385846503962</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2642676934822573</v>
+        <v>0.2745066878663182</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.117841507482526</v>
+        <v>-1.127232892569767</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3460487766873566</v>
+        <v>-0.3421168769223475</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1105178309746043</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4710859359255611</v>
+        <v>0.4796879504234694</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.095850099329273</v>
+        <v>-1.104156985241938</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2726380988890139</v>
+        <v>-0.270524191209107</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1526819743793057</v>
       </c>
       <c r="E86" t="n">
-        <v>0.6293126340751914</v>
+        <v>0.6379115005348571</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9888286042242366</v>
+        <v>-0.9972889570012278</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2132723937100371</v>
+        <v>-0.2105839690508556</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1862772585522103</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8533789780497083</v>
+        <v>0.8607548316521233</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9406014453571442</v>
+        <v>-0.9478773487453566</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1554208949257516</v>
+        <v>-0.1534061504504868</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2087854739122204</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9607333781989004</v>
+        <v>0.9676102677398631</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7667793657536666</v>
+        <v>-0.7748178814061492</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0926537344256441</v>
+        <v>-0.0914952563523668</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.218954819029321</v>
       </c>
       <c r="E89" t="n">
-        <v>1.204734674344691</v>
+        <v>1.210279943709033</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6098103088819555</v>
+        <v>-0.6186877767260913</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02868897365454721</v>
+        <v>0.0279806650499619</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2162171055878882</v>
       </c>
       <c r="E90" t="n">
-        <v>1.372984726258764</v>
+        <v>1.377379387645435</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5359101111368882</v>
+        <v>-0.54372983813151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04992878767737869</v>
+        <v>0.04854522486975539</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1999492900480667</v>
       </c>
       <c r="E91" t="n">
-        <v>1.452858326569167</v>
+        <v>1.457034199297978</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3193833187534017</v>
+        <v>-0.3284748531980344</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07861528616308373</v>
+        <v>0.07732459048361716</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1697492808907711</v>
       </c>
       <c r="E92" t="n">
-        <v>1.590152144424619</v>
+        <v>1.592459656456446</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2280949317753257</v>
+        <v>-0.2355227280087436</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09207472366932591</v>
+        <v>0.09052588885396604</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1261641906376118</v>
       </c>
       <c r="E93" t="n">
-        <v>1.60045095153529</v>
+        <v>1.601615725685052</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.0235149445225114</v>
+        <v>-0.03039813013995931</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1174652261150273</v>
+        <v>0.1155024242707653</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07186987282839391</v>
       </c>
       <c r="E94" t="n">
-        <v>1.550719817397795</v>
+        <v>1.551519419111415</v>
       </c>
       <c r="F94" t="n">
-        <v>0.134581110040051</v>
+        <v>0.1277325528432717</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1305642132424916</v>
+        <v>0.1283574384344281</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.01098604750046238</v>
       </c>
       <c r="E95" t="n">
-        <v>1.543594232835666</v>
+        <v>1.543490347573661</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1902950908576101</v>
+        <v>0.1856816408130778</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1418499303422176</v>
+        <v>0.1390403062106958</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.04996853074257281</v>
       </c>
       <c r="E96" t="n">
-        <v>1.50985985502795</v>
+        <v>1.508682488725217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2812072872656953</v>
+        <v>0.2764962480356423</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05294303429466951</v>
+        <v>0.05162085823277694</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1051254046551025</v>
       </c>
       <c r="E97" t="n">
-        <v>1.352538217873068</v>
+        <v>1.351787410752207</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2980508658827339</v>
+        <v>0.2946761688866653</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03198182165630825</v>
+        <v>0.03081389946830314</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1522456002237814</v>
       </c>
       <c r="E98" t="n">
-        <v>1.288538600400982</v>
+        <v>1.286945693050225</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2505280805724235</v>
+        <v>0.2485275022692504</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02786418763498565</v>
+        <v>0.0263672954506287</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1907324683620219</v>
       </c>
       <c r="E99" t="n">
-        <v>1.183701056826749</v>
+        <v>1.182671648321419</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2248841610481928</v>
+        <v>0.2243694567955274</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0604810118665785</v>
+        <v>0.05735815792991794</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2221131962934067</v>
       </c>
       <c r="E100" t="n">
-        <v>1.067105590416401</v>
+        <v>1.065835356985511</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2205650525793437</v>
+        <v>0.2192727828807558</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02463115235983404</v>
+        <v>0.02239132315022316</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2463547895704953</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9057072437373497</v>
+        <v>0.9046258926010161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1878144367224402</v>
+        <v>0.187279270221198</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.01439035567633131</v>
+        <v>-0.01635315752059327</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2684885383400413</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7360767770538958</v>
+        <v>0.7361066834172005</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1528664901722011</v>
+        <v>0.1531986082067955</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.03776453962764652</v>
+        <v>-0.03994455611064798</v>
       </c>
     </row>
   </sheetData>
